--- a/controlesacola/novosdados.xlsx
+++ b/controlesacola/novosdados.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$64</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="59">
   <si>
     <t>DIA</t>
   </si>
@@ -64,9 +64,6 @@
     <t>IDEZ</t>
   </si>
   <si>
-    <t>500</t>
-  </si>
-  <si>
     <t>TOTAL OS</t>
   </si>
   <si>
@@ -94,39 +91,21 @@
     <t>ROSA</t>
   </si>
   <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
     <t>OS001080/01K</t>
   </si>
   <si>
     <t>MARBELLE</t>
   </si>
   <si>
-    <t>3000</t>
-  </si>
-  <si>
     <t>FABIANA</t>
   </si>
   <si>
-    <t>180</t>
-  </si>
-  <si>
     <t>RECEBIDO</t>
   </si>
   <si>
     <t>GERLUCIO</t>
   </si>
   <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>342</t>
-  </si>
-  <si>
     <t>OS001056/01RX</t>
   </si>
   <si>
@@ -136,21 +115,12 @@
     <t>DIOGO</t>
   </si>
   <si>
-    <t>57</t>
-  </si>
-  <si>
     <t>WESCLEY</t>
   </si>
   <si>
-    <t>266</t>
-  </si>
-  <si>
     <t>PAULO</t>
   </si>
   <si>
-    <t>253</t>
-  </si>
-  <si>
     <t>OS009999/BRA</t>
   </si>
   <si>
@@ -163,18 +133,12 @@
     <t>DIOMAR</t>
   </si>
   <si>
-    <t>170</t>
-  </si>
-  <si>
     <t>OS001044/01KID</t>
   </si>
   <si>
     <t>HARDY</t>
   </si>
   <si>
-    <t>1000</t>
-  </si>
-  <si>
     <t>OS001080/03P</t>
   </si>
   <si>
@@ -187,42 +151,18 @@
     <t>VERDE MILITAR</t>
   </si>
   <si>
-    <t>309</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>255</t>
-  </si>
-  <si>
     <t>DONA GRACA</t>
   </si>
   <si>
     <t>OS001044</t>
   </si>
   <si>
-    <t>400</t>
-  </si>
-  <si>
     <t>OS001044/01VE</t>
   </si>
   <si>
     <t>VERMELHA</t>
   </si>
   <si>
-    <t>319</t>
-  </si>
-  <si>
-    <t>396</t>
-  </si>
-  <si>
-    <t>OS1044/01VE</t>
-  </si>
-  <si>
     <t>DAIANE</t>
   </si>
   <si>
@@ -232,18 +172,6 @@
     <t>CARIOCA DAS MARCAS</t>
   </si>
   <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>186</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
     <t>OS001051</t>
   </si>
   <si>
@@ -259,12 +187,6 @@
     <t>DUPLEX BRANCA</t>
   </si>
   <si>
-    <t>320</t>
-  </si>
-  <si>
-    <t>22O</t>
-  </si>
-  <si>
     <t>OS001080/02VC</t>
   </si>
   <si>
@@ -272,27 +194,6 @@
   </si>
   <si>
     <t>ALAIS</t>
-  </si>
-  <si>
-    <t>750</t>
-  </si>
-  <si>
-    <t>211</t>
-  </si>
-  <si>
-    <t>193</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>192</t>
-  </si>
-  <si>
-    <t>459</t>
-  </si>
-  <si>
-    <t>219</t>
   </si>
 </sst>
 </file>
@@ -348,13 +249,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -649,13 +548,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J68"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="I65" sqref="I65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
@@ -714,11 +622,11 @@
       <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2">
+        <v>500</v>
+      </c>
+      <c r="J2" t="s">
         <v>15</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -732,25 +640,25 @@
         <v>2022</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
         <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
       </c>
       <c r="H3" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3">
+        <v>500</v>
+      </c>
+      <c r="J3" t="s">
         <v>15</v>
-      </c>
-      <c r="J3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -764,25 +672,25 @@
         <v>2022</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>19</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4">
+        <v>500</v>
+      </c>
+      <c r="J4" t="s">
         <v>20</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -796,25 +704,25 @@
         <v>2022</v>
       </c>
       <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
         <v>22</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
         <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
       </c>
       <c r="H5" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>25</v>
+      <c r="I5">
+        <v>2000</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -828,25 +736,25 @@
         <v>2022</v>
       </c>
       <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
         <v>23</v>
       </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>24</v>
-      </c>
       <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6">
+        <v>250</v>
+      </c>
+      <c r="J6" t="s">
         <v>20</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -860,25 +768,25 @@
         <v>2022</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>29</v>
+      <c r="I7">
+        <v>3000</v>
       </c>
       <c r="J7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -892,25 +800,25 @@
         <v>2022</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="I8">
+        <v>500</v>
       </c>
       <c r="J8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -924,25 +832,25 @@
         <v>2022</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
       </c>
       <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
         <v>19</v>
       </c>
-      <c r="H9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>31</v>
+      <c r="I9">
+        <v>180</v>
       </c>
       <c r="J9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -956,25 +864,25 @@
         <v>2022</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s">
         <v>28</v>
       </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>34</v>
+      <c r="I10">
+        <v>62</v>
       </c>
       <c r="J10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -988,25 +896,25 @@
         <v>2022</v>
       </c>
       <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
         <v>22</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
         <v>23</v>
       </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>24</v>
-      </c>
       <c r="H11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
+      </c>
+      <c r="I11">
+        <v>342</v>
       </c>
       <c r="J11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1020,25 +928,25 @@
         <v>2022</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H12" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>25</v>
+      <c r="I12">
+        <v>2000</v>
       </c>
       <c r="J12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1052,25 +960,25 @@
         <v>2022</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H13" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
+      </c>
+      <c r="I13">
+        <v>57</v>
       </c>
       <c r="J13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1084,25 +992,25 @@
         <v>2022</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H14" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
+      </c>
+      <c r="I14">
+        <v>266</v>
       </c>
       <c r="J14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1116,25 +1024,25 @@
         <v>2022</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H15" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
+      </c>
+      <c r="I15">
+        <v>253</v>
       </c>
       <c r="J15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1148,25 +1056,25 @@
         <v>2022</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>48</v>
+        <v>37</v>
+      </c>
+      <c r="I16">
+        <v>170</v>
       </c>
       <c r="J16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1180,25 +1088,25 @@
         <v>2022</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F17" t="s">
         <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>48</v>
+        <v>37</v>
+      </c>
+      <c r="I17">
+        <v>170</v>
       </c>
       <c r="J17" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1212,25 +1120,25 @@
         <v>2022</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F18" t="s">
         <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H18" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>51</v>
+      <c r="I18">
+        <v>1000</v>
       </c>
       <c r="J18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1244,25 +1152,25 @@
         <v>2022</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E19" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F19" t="s">
         <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H19" t="s">
-        <v>40</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>15</v>
+        <v>32</v>
+      </c>
+      <c r="I19">
+        <v>500</v>
       </c>
       <c r="J19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1276,25 +1184,25 @@
         <v>2022</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G20" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="H20" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>51</v>
+      <c r="I20">
+        <v>1000</v>
       </c>
       <c r="J20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1308,25 +1216,25 @@
         <v>2022</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G21" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="H21" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>15</v>
+        <v>31</v>
+      </c>
+      <c r="I21">
+        <v>500</v>
       </c>
       <c r="J21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1340,25 +1248,25 @@
         <v>2022</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G22" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="H22" t="s">
-        <v>42</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>15</v>
+        <v>33</v>
+      </c>
+      <c r="I22">
+        <v>500</v>
       </c>
       <c r="J22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1372,25 +1280,25 @@
         <v>2022</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E23" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H23" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>51</v>
+      <c r="I23">
+        <v>1000</v>
       </c>
       <c r="J23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1404,25 +1312,25 @@
         <v>2022</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F24" t="s">
         <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>51</v>
+        <v>37</v>
+      </c>
+      <c r="I24">
+        <v>1000</v>
       </c>
       <c r="J24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1436,25 +1344,25 @@
         <v>2022</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F25" t="s">
         <v>12</v>
       </c>
       <c r="G25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" t="s">
         <v>19</v>
       </c>
-      <c r="H25" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>56</v>
+      <c r="I25">
+        <v>309</v>
       </c>
       <c r="J25" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1468,25 +1376,25 @@
         <v>2022</v>
       </c>
       <c r="D26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" t="s">
         <v>22</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
         <v>23</v>
       </c>
-      <c r="F26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" t="s">
-        <v>24</v>
-      </c>
       <c r="H26" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>57</v>
+        <v>19</v>
+      </c>
+      <c r="I26">
+        <v>92</v>
       </c>
       <c r="J26" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1500,25 +1408,25 @@
         <v>2022</v>
       </c>
       <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" t="s">
         <v>22</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
         <v>23</v>
       </c>
-      <c r="F27" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" t="s">
-        <v>24</v>
-      </c>
       <c r="H27" t="s">
-        <v>33</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>58</v>
+        <v>28</v>
+      </c>
+      <c r="I27">
+        <v>153</v>
       </c>
       <c r="J27" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1532,25 +1440,25 @@
         <v>2022</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F28" t="s">
         <v>12</v>
       </c>
       <c r="G28" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H28" t="s">
-        <v>30</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>59</v>
+        <v>26</v>
+      </c>
+      <c r="I28">
+        <v>255</v>
       </c>
       <c r="J28" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1564,25 +1472,25 @@
         <v>2022</v>
       </c>
       <c r="D29" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E29" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F29" t="s">
         <v>12</v>
       </c>
       <c r="G29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" t="s">
         <v>19</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29">
+        <v>250</v>
+      </c>
+      <c r="J29" t="s">
         <v>20</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J29" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1596,25 +1504,25 @@
         <v>2022</v>
       </c>
       <c r="D30" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E30" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F30" t="s">
         <v>12</v>
       </c>
       <c r="G30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H30" t="s">
-        <v>60</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>26</v>
+        <v>44</v>
+      </c>
+      <c r="I30">
+        <v>250</v>
       </c>
       <c r="J30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1628,25 +1536,25 @@
         <v>2022</v>
       </c>
       <c r="D31" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E31" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F31" t="s">
         <v>12</v>
       </c>
       <c r="G31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H31" t="s">
-        <v>30</v>
-      </c>
-      <c r="I31" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="I31">
+        <v>250</v>
+      </c>
       <c r="J31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1660,25 +1568,25 @@
         <v>2022</v>
       </c>
       <c r="D32" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E32" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F32" t="s">
         <v>12</v>
       </c>
       <c r="G32" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="H32" t="s">
         <v>14</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>25</v>
+      <c r="I32">
+        <v>2000</v>
       </c>
       <c r="J32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1692,25 +1600,25 @@
         <v>2022</v>
       </c>
       <c r="D33" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E33" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F33" t="s">
         <v>12</v>
       </c>
       <c r="G33" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="H33" t="s">
-        <v>30</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>62</v>
+        <v>26</v>
+      </c>
+      <c r="I33">
+        <v>400</v>
       </c>
       <c r="J33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1724,25 +1632,25 @@
         <v>2022</v>
       </c>
       <c r="D34" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E34" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F34" t="s">
         <v>12</v>
       </c>
       <c r="G34" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="H34" t="s">
-        <v>33</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="I34">
+        <v>250</v>
       </c>
       <c r="J34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1756,25 +1664,25 @@
         <v>2022</v>
       </c>
       <c r="D35" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E35" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F35" t="s">
         <v>12</v>
       </c>
       <c r="G35" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
         <v>14</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>29</v>
+      <c r="I35">
+        <v>3000</v>
       </c>
       <c r="J35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1788,25 +1696,25 @@
         <v>2022</v>
       </c>
       <c r="D36" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E36" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F36" t="s">
         <v>12</v>
       </c>
       <c r="G36" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>33</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="I36">
+        <v>250</v>
       </c>
       <c r="J36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1820,25 +1728,25 @@
         <v>2022</v>
       </c>
       <c r="D37" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E37" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F37" t="s">
         <v>12</v>
       </c>
       <c r="G37" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="H37" t="s">
-        <v>30</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>65</v>
+        <v>26</v>
+      </c>
+      <c r="I37">
+        <v>319</v>
       </c>
       <c r="J37" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1852,25 +1760,25 @@
         <v>2022</v>
       </c>
       <c r="D38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" t="s">
         <v>22</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
         <v>23</v>
       </c>
-      <c r="F38" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" t="s">
-        <v>24</v>
-      </c>
       <c r="H38" t="s">
-        <v>30</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>66</v>
+        <v>26</v>
+      </c>
+      <c r="I38">
+        <v>396</v>
       </c>
       <c r="J38" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1884,25 +1792,25 @@
         <v>2022</v>
       </c>
       <c r="D39" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="E39" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F39" t="s">
         <v>12</v>
       </c>
       <c r="G39" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>30</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>51</v>
+        <v>26</v>
+      </c>
+      <c r="I39">
+        <v>1000</v>
       </c>
       <c r="J39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1916,25 +1824,25 @@
         <v>2022</v>
       </c>
       <c r="D40" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E40" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F40" t="s">
         <v>12</v>
       </c>
       <c r="G40" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="H40" t="s">
+        <v>19</v>
+      </c>
+      <c r="I40">
+        <v>500</v>
+      </c>
+      <c r="J40" t="s">
         <v>20</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J40" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1948,25 +1856,25 @@
         <v>2022</v>
       </c>
       <c r="D41" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E41" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F41" t="s">
         <v>12</v>
       </c>
       <c r="G41" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="H41" t="s">
-        <v>68</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>15</v>
+        <v>48</v>
+      </c>
+      <c r="I41">
+        <v>500</v>
       </c>
       <c r="J41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1980,25 +1888,25 @@
         <v>2022</v>
       </c>
       <c r="D42" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="E42" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F42" t="s">
         <v>12</v>
       </c>
       <c r="G42" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="H42" t="s">
         <v>14</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>51</v>
+      <c r="I42">
+        <v>1000</v>
       </c>
       <c r="J42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2012,25 +1920,25 @@
         <v>2022</v>
       </c>
       <c r="D43" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="E43" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F43" t="s">
         <v>12</v>
       </c>
       <c r="G43" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="H43" t="s">
-        <v>68</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>71</v>
+        <v>48</v>
+      </c>
+      <c r="I43">
+        <v>200</v>
       </c>
       <c r="J43" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2044,25 +1952,25 @@
         <v>2022</v>
       </c>
       <c r="D44" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F44" t="s">
         <v>12</v>
       </c>
       <c r="G44" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H44" t="s">
-        <v>38</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>72</v>
+        <v>31</v>
+      </c>
+      <c r="I44">
+        <v>186</v>
       </c>
       <c r="J44" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2076,25 +1984,25 @@
         <v>2022</v>
       </c>
       <c r="D45" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E45" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G45" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="H45" t="s">
-        <v>38</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>73</v>
+        <v>31</v>
+      </c>
+      <c r="I45">
+        <v>220</v>
       </c>
       <c r="J45" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2108,25 +2016,25 @@
         <v>2022</v>
       </c>
       <c r="D46" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E46" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G46" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="H46" t="s">
-        <v>42</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>74</v>
+        <v>33</v>
+      </c>
+      <c r="I46">
+        <v>159</v>
       </c>
       <c r="J46" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2140,25 +2048,25 @@
         <v>2022</v>
       </c>
       <c r="D47" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E47" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F47" t="s">
         <v>12</v>
       </c>
       <c r="G47" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="H47" t="s">
-        <v>42</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>15</v>
+        <v>33</v>
+      </c>
+      <c r="I47">
+        <v>500</v>
       </c>
       <c r="J47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2172,25 +2080,25 @@
         <v>2022</v>
       </c>
       <c r="D48" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E48" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F48" t="s">
         <v>12</v>
       </c>
       <c r="G48" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>51</v>
+        <v>37</v>
+      </c>
+      <c r="I48">
+        <v>1000</v>
       </c>
       <c r="J48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2204,25 +2112,25 @@
         <v>2022</v>
       </c>
       <c r="D49" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="E49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F49" t="s">
         <v>12</v>
       </c>
       <c r="G49" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="H49" t="s">
         <v>14</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>25</v>
+      <c r="I49">
+        <v>2000</v>
       </c>
       <c r="J49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2236,25 +2144,25 @@
         <v>2022</v>
       </c>
       <c r="D50" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="E50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F50" t="s">
         <v>12</v>
       </c>
       <c r="G50" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="H50" t="s">
-        <v>38</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>51</v>
+        <v>31</v>
+      </c>
+      <c r="I50">
+        <v>1000</v>
       </c>
       <c r="J50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2268,25 +2176,25 @@
         <v>2022</v>
       </c>
       <c r="D51" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="E51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F51" t="s">
         <v>12</v>
       </c>
       <c r="G51" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="H51" t="s">
-        <v>40</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>15</v>
+        <v>32</v>
+      </c>
+      <c r="I51">
+        <v>500</v>
       </c>
       <c r="J51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2300,25 +2208,25 @@
         <v>2022</v>
       </c>
       <c r="D52" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="E52" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="F52" t="s">
         <v>12</v>
       </c>
       <c r="G52" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="H52" t="s">
         <v>14</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>80</v>
+      <c r="I52">
+        <v>320</v>
       </c>
       <c r="J52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2332,25 +2240,25 @@
         <v>2022</v>
       </c>
       <c r="D53" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="E53" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="F53" t="s">
         <v>12</v>
       </c>
       <c r="G53" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="H53" t="s">
-        <v>33</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>81</v>
+        <v>28</v>
+      </c>
+      <c r="I53">
+        <v>220</v>
       </c>
       <c r="J53" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2364,25 +2272,25 @@
         <v>2022</v>
       </c>
       <c r="D54" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="E54" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F54" t="s">
         <v>12</v>
       </c>
       <c r="G54" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="H54" t="s">
         <v>14</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>51</v>
+      <c r="I54">
+        <v>1000</v>
       </c>
       <c r="J54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2396,25 +2304,25 @@
         <v>2022</v>
       </c>
       <c r="D55" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="E55" t="s">
+        <v>25</v>
+      </c>
+      <c r="F55" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>57</v>
+      </c>
+      <c r="H55" t="s">
         <v>28</v>
       </c>
-      <c r="F55" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" t="s">
-        <v>83</v>
-      </c>
-      <c r="H55" t="s">
-        <v>33</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>26</v>
+      <c r="I55">
+        <v>250</v>
       </c>
       <c r="J55" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2428,25 +2336,25 @@
         <v>2022</v>
       </c>
       <c r="D56" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="E56" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F56" t="s">
         <v>12</v>
       </c>
       <c r="G56" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="H56" t="s">
-        <v>84</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>85</v>
+        <v>58</v>
+      </c>
+      <c r="I56">
+        <v>750</v>
       </c>
       <c r="J56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2460,25 +2368,25 @@
         <v>2022</v>
       </c>
       <c r="D57" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="E57" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F57" t="s">
         <v>12</v>
       </c>
       <c r="G57" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="H57" t="s">
+        <v>19</v>
+      </c>
+      <c r="I57">
+        <v>500</v>
+      </c>
+      <c r="J57" t="s">
         <v>20</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J57" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2492,25 +2400,25 @@
         <v>2022</v>
       </c>
       <c r="D58" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E58" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F58" t="s">
         <v>12</v>
       </c>
       <c r="G58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H58" t="s">
-        <v>60</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>62</v>
+        <v>44</v>
+      </c>
+      <c r="I58">
+        <v>400</v>
       </c>
       <c r="J58" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2524,25 +2432,25 @@
         <v>2022</v>
       </c>
       <c r="D59" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E59" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F59" t="s">
         <v>12</v>
       </c>
       <c r="G59" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>33</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>86</v>
+        <v>28</v>
+      </c>
+      <c r="I59">
+        <v>211</v>
       </c>
       <c r="J59" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2556,25 +2464,25 @@
         <v>2022</v>
       </c>
       <c r="D60" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E60" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F60" t="s">
         <v>12</v>
       </c>
       <c r="G60" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="H60" t="s">
-        <v>20</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>87</v>
+        <v>19</v>
+      </c>
+      <c r="I60">
+        <v>193</v>
       </c>
       <c r="J60" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2588,25 +2496,25 @@
         <v>2022</v>
       </c>
       <c r="D61" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E61" t="s">
+        <v>25</v>
+      </c>
+      <c r="F61" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>18</v>
+      </c>
+      <c r="H61" t="s">
+        <v>19</v>
+      </c>
+      <c r="I61">
         <v>28</v>
       </c>
-      <c r="F61" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" t="s">
-        <v>19</v>
-      </c>
-      <c r="H61" t="s">
-        <v>20</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="J61" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2620,25 +2528,25 @@
         <v>2022</v>
       </c>
       <c r="D62" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" t="s">
         <v>22</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
         <v>23</v>
       </c>
-      <c r="F62" t="s">
-        <v>12</v>
-      </c>
-      <c r="G62" t="s">
-        <v>24</v>
-      </c>
       <c r="H62" t="s">
-        <v>20</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>89</v>
+        <v>19</v>
+      </c>
+      <c r="I62">
+        <v>192</v>
       </c>
       <c r="J62" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2652,25 +2560,25 @@
         <v>2022</v>
       </c>
       <c r="D63" t="s">
+        <v>21</v>
+      </c>
+      <c r="E63" t="s">
         <v>22</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" t="s">
         <v>23</v>
       </c>
-      <c r="F63" t="s">
-        <v>12</v>
-      </c>
-      <c r="G63" t="s">
-        <v>24</v>
-      </c>
       <c r="H63" t="s">
-        <v>30</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>90</v>
+        <v>26</v>
+      </c>
+      <c r="I63">
+        <v>459</v>
       </c>
       <c r="J63" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2684,41 +2592,31 @@
         <v>2022</v>
       </c>
       <c r="D64" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="E64" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F64" t="s">
         <v>12</v>
       </c>
       <c r="G64" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>30</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>91</v>
+        <v>26</v>
+      </c>
+      <c r="I64">
+        <v>219</v>
       </c>
       <c r="J64" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="65" spans="9:9">
-      <c r="I65" s="3"/>
-    </row>
-    <row r="66" spans="9:9">
-      <c r="I66" s="3"/>
-    </row>
-    <row r="67" spans="9:9">
-      <c r="I67" s="2"/>
-    </row>
-    <row r="68" spans="9:9">
-      <c r="I68" s="2"/>
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J65"/>
+  <autoFilter ref="A1:J64">
+    <filterColumn colId="4"/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>